--- a/OctopathTraveler/Resource/info_zh_cn.xlsx
+++ b/OctopathTraveler/Resource/info_zh_cn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Git Projects\OctopathTraveler-SaveDataEditor\OctopathTraveler\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE1EBD6-6F09-421D-A247-4FABDAC49AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A6E2F7-CF29-4D2C-AE65-DB789D85A926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27990" windowHeight="16440" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7409" uniqueCount="2818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7419" uniqueCount="2824">
   <si>
     <t>Highland Ratkin I</t>
   </si>
@@ -9566,10 +9566,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UNKNOWN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通往黑曜馆的密道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -9674,6 +9670,30 @@
   </si>
   <si>
     <t>黑市商品清单(325=326=327)</t>
+  </si>
+  <si>
+    <t>终结之门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后的演出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Gate of Finis</t>
+  </si>
+  <si>
+    <t>Journey's End</t>
+  </si>
+  <si>
+    <t>不知道名字/(ㄒoㄒ)/~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终结之门</t>
+  </si>
+  <si>
+    <t>最后的演出</t>
   </si>
 </sst>
 </file>
@@ -10418,10 +10438,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB85906A-F12B-4153-9025-C1441ECA3D68}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:G180"/>
+  <dimension ref="A1:G182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="G172" sqref="G172"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10862,7 +10882,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
       <c r="F22" s="8" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -13905,6 +13925,40 @@
         <v>2729</v>
       </c>
       <c r="G180" s="40"/>
+    </row>
+    <row r="181" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A181" s="39">
+        <v>1282008</v>
+      </c>
+      <c r="B181" s="39" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C181" s="40">
+        <v>0</v>
+      </c>
+      <c r="D181" s="40"/>
+      <c r="E181" s="39"/>
+      <c r="F181" s="40" t="s">
+        <v>2819</v>
+      </c>
+      <c r="G181" s="39"/>
+    </row>
+    <row r="182" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A182" s="39">
+        <v>1282143</v>
+      </c>
+      <c r="B182" s="39" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C182" s="40">
+        <v>0</v>
+      </c>
+      <c r="D182" s="40"/>
+      <c r="E182" s="39"/>
+      <c r="F182" s="40" t="s">
+        <v>2820</v>
+      </c>
+      <c r="G182" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19728,7 +19782,7 @@
         <v>2774</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -25752,7 +25806,7 @@
         <v>620</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -27741,7 +27795,7 @@
         <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -32875,7 +32929,7 @@
         <v>1</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
@@ -34430,7 +34484,7 @@
         <v>311</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="C512" s="2">
         <v>13</v>
@@ -34447,7 +34501,7 @@
         <v>312</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="C513" s="2">
         <v>13</v>
@@ -34634,7 +34688,7 @@
         <v>326</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="C524" s="2">
         <v>13</v>
@@ -34651,7 +34705,7 @@
         <v>325</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="C525" s="2">
         <v>13</v>
@@ -34668,7 +34722,7 @@
         <v>327</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="C526" s="2">
         <v>13</v>
@@ -36564,7 +36618,7 @@
         <v>55</v>
       </c>
       <c r="E637" s="2" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.3">
@@ -36680,10 +36734,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463ADB43-BFAA-4FA8-B19C-02F047202DAB}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="D169" sqref="D169:D175"/>
+    <sheetView topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183:D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36702,7 +36756,7 @@
         <v>2733</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>1085</v>
@@ -36719,7 +36773,7 @@
         <v>2739</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>2740</v>
@@ -36736,7 +36790,7 @@
         <v>2401</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>2402</v>
@@ -36753,7 +36807,7 @@
         <v>2403</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>2404</v>
@@ -36770,7 +36824,7 @@
         <v>2405</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>2406</v>
@@ -36787,7 +36841,7 @@
         <v>2407</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>2408</v>
@@ -36804,7 +36858,7 @@
         <v>2409</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>2410</v>
@@ -36821,7 +36875,7 @@
         <v>2411</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>2412</v>
@@ -36838,7 +36892,7 @@
         <v>2413</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>2414</v>
@@ -36855,7 +36909,7 @@
         <v>2415</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>2416</v>
@@ -36872,7 +36926,7 @@
         <v>2417</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>2418</v>
@@ -36889,7 +36943,7 @@
         <v>2419</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>2420</v>
@@ -36906,7 +36960,7 @@
         <v>2421</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>2422</v>
@@ -36923,7 +36977,7 @@
         <v>2423</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>2424</v>
@@ -36940,7 +36994,7 @@
         <v>2425</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>2426</v>
@@ -36957,7 +37011,7 @@
         <v>2427</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>2428</v>
@@ -36971,10 +37025,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>2430</v>
@@ -36991,7 +37045,7 @@
         <v>2431</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>2432</v>
@@ -37008,7 +37062,7 @@
         <v>2433</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>2434</v>
@@ -37025,7 +37079,7 @@
         <v>2435</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>2436</v>
@@ -37042,7 +37096,7 @@
         <v>2437</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>2438</v>
@@ -37059,7 +37113,7 @@
         <v>2756</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>2757</v>
@@ -37076,7 +37130,7 @@
         <v>2439</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>2440</v>
@@ -37093,7 +37147,7 @@
         <v>2441</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>2442</v>
@@ -37110,7 +37164,7 @@
         <v>2443</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>2444</v>
@@ -37127,7 +37181,7 @@
         <v>2445</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>2446</v>
@@ -37144,7 +37198,7 @@
         <v>2447</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>2448</v>
@@ -37161,7 +37215,7 @@
         <v>2449</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>2450</v>
@@ -37178,7 +37232,7 @@
         <v>2451</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>2452</v>
@@ -37195,7 +37249,7 @@
         <v>2453</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>2454</v>
@@ -37223,7 +37277,7 @@
         <v>2456</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>2457</v>
@@ -37240,7 +37294,7 @@
         <v>2458</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>2459</v>
@@ -37257,7 +37311,7 @@
         <v>2746</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>2461</v>
@@ -37274,7 +37328,7 @@
         <v>2747</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>2463</v>
@@ -37291,7 +37345,7 @@
         <v>2464</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>2465</v>
@@ -37308,7 +37362,7 @@
         <v>2466</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>2467</v>
@@ -37325,7 +37379,7 @@
         <v>2468</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>2469</v>
@@ -37342,7 +37396,7 @@
         <v>2470</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>2471</v>
@@ -37359,7 +37413,7 @@
         <v>2472</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>2473</v>
@@ -37376,7 +37430,7 @@
         <v>2474</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>2475</v>
@@ -37393,7 +37447,7 @@
         <v>2476</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>2477</v>
@@ -37410,7 +37464,7 @@
         <v>2478</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>2479</v>
@@ -37427,7 +37481,7 @@
         <v>2480</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>2481</v>
@@ -37444,7 +37498,7 @@
         <v>2482</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>2483</v>
@@ -37461,7 +37515,7 @@
         <v>2484</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>2485</v>
@@ -37478,7 +37532,7 @@
         <v>2486</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>2487</v>
@@ -37495,7 +37549,7 @@
         <v>2488</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>2489</v>
@@ -37512,7 +37566,7 @@
         <v>2490</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>2491</v>
@@ -37529,7 +37583,7 @@
         <v>2493</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>2494</v>
@@ -37546,7 +37600,7 @@
         <v>2495</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>2496</v>
@@ -37563,7 +37617,7 @@
         <v>2497</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>2498</v>
@@ -37580,7 +37634,7 @@
         <v>2499</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>2500</v>
@@ -37597,7 +37651,7 @@
         <v>2501</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D54" s="17" t="s">
         <v>2502</v>
@@ -37614,7 +37668,7 @@
         <v>2503</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>2504</v>
@@ -37631,7 +37685,7 @@
         <v>2505</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>2506</v>
@@ -37648,7 +37702,7 @@
         <v>2507</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>2508</v>
@@ -37665,7 +37719,7 @@
         <v>2509</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>2510</v>
@@ -37682,7 +37736,7 @@
         <v>2511</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>2512</v>
@@ -37699,7 +37753,7 @@
         <v>2513</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>2514</v>
@@ -37716,7 +37770,7 @@
         <v>2515</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>2516</v>
@@ -37733,7 +37787,7 @@
         <v>2517</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D62" s="17" t="s">
         <v>2518</v>
@@ -37750,7 +37804,7 @@
         <v>2519</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>2520</v>
@@ -37767,7 +37821,7 @@
         <v>2521</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>2522</v>
@@ -37784,7 +37838,7 @@
         <v>2523</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="D65" s="17" t="s">
         <v>2524</v>
@@ -37801,7 +37855,7 @@
         <v>2525</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="D66" s="21" t="s">
         <v>2526</v>
@@ -37818,7 +37872,7 @@
         <v>2527</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="D67" s="21" t="s">
         <v>2528</v>
@@ -37835,7 +37889,7 @@
         <v>2529</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D68" s="21" t="s">
         <v>2530</v>
@@ -37852,7 +37906,7 @@
         <v>2744</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D69" s="21" t="s">
         <v>2532</v>
@@ -37869,7 +37923,7 @@
         <v>2745</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D70" s="21" t="s">
         <v>2534</v>
@@ -37886,7 +37940,7 @@
         <v>2535</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D71" s="21" t="s">
         <v>2536</v>
@@ -37903,7 +37957,7 @@
         <v>2537</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D72" s="21" t="s">
         <v>2538</v>
@@ -37920,7 +37974,7 @@
         <v>2539</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D73" s="21" t="s">
         <v>2540</v>
@@ -37937,7 +37991,7 @@
         <v>2541</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D74" s="21" t="s">
         <v>2542</v>
@@ -37954,7 +38008,7 @@
         <v>2543</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D75" s="21" t="s">
         <v>2544</v>
@@ -37971,7 +38025,7 @@
         <v>2545</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D76" s="21" t="s">
         <v>2546</v>
@@ -37988,7 +38042,7 @@
         <v>2547</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D77" s="21" t="s">
         <v>2548</v>
@@ -38005,7 +38059,7 @@
         <v>2549</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D78" s="21" t="s">
         <v>2550</v>
@@ -38022,7 +38076,7 @@
         <v>2551</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D79" s="21" t="s">
         <v>2552</v>
@@ -38039,7 +38093,7 @@
         <v>2553</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D80" s="21" t="s">
         <v>2554</v>
@@ -38056,7 +38110,7 @@
         <v>2555</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D81" s="21" t="s">
         <v>2556</v>
@@ -38073,7 +38127,7 @@
         <v>2557</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D82" s="21" t="s">
         <v>2558</v>
@@ -38090,7 +38144,7 @@
         <v>2559</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D83" s="21" t="s">
         <v>2560</v>
@@ -38107,7 +38161,7 @@
         <v>2561</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="D84" s="25" t="s">
         <v>2562</v>
@@ -38124,7 +38178,7 @@
         <v>2758</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="D85" s="25" t="s">
         <v>2759</v>
@@ -38141,7 +38195,7 @@
         <v>2563</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D86" s="25" t="s">
         <v>2564</v>
@@ -38158,7 +38212,7 @@
         <v>2565</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D87" s="25" t="s">
         <v>2566</v>
@@ -38175,7 +38229,7 @@
         <v>2567</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D88" s="25" t="s">
         <v>2568</v>
@@ -38192,7 +38246,7 @@
         <v>2569</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D89" s="25" t="s">
         <v>2570</v>
@@ -38209,7 +38263,7 @@
         <v>2571</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D90" s="25" t="s">
         <v>2572</v>
@@ -38226,7 +38280,7 @@
         <v>2573</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D91" s="25" t="s">
         <v>2574</v>
@@ -38243,7 +38297,7 @@
         <v>2575</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D92" s="25" t="s">
         <v>2576</v>
@@ -38260,7 +38314,7 @@
         <v>2577</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D93" s="25" t="s">
         <v>2578</v>
@@ -38277,7 +38331,7 @@
         <v>2579</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D94" s="25" t="s">
         <v>2580</v>
@@ -38294,7 +38348,7 @@
         <v>2581</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D95" s="25" t="s">
         <v>2582</v>
@@ -38311,7 +38365,7 @@
         <v>2583</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D96" s="25" t="s">
         <v>1356</v>
@@ -38328,7 +38382,7 @@
         <v>2584</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D97" s="25" t="s">
         <v>2585</v>
@@ -38345,7 +38399,7 @@
         <v>2586</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D98" s="25" t="s">
         <v>2587</v>
@@ -38362,7 +38416,7 @@
         <v>2588</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D99" s="25" t="s">
         <v>2589</v>
@@ -38379,7 +38433,7 @@
         <v>2590</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D100" s="25" t="s">
         <v>2591</v>
@@ -38396,7 +38450,7 @@
         <v>2592</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D101" s="25" t="s">
         <v>2593</v>
@@ -38413,7 +38467,7 @@
         <v>2594</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D102" s="25" t="s">
         <v>2595</v>
@@ -38430,7 +38484,7 @@
         <v>2596</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D103" s="25" t="s">
         <v>2597</v>
@@ -38447,7 +38501,7 @@
         <v>2598</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="D104" s="29" t="s">
         <v>2599</v>
@@ -38464,7 +38518,7 @@
         <v>2600</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="D105" s="29" t="s">
         <v>2601</v>
@@ -38481,7 +38535,7 @@
         <v>2602</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D106" s="29" t="s">
         <v>2603</v>
@@ -38498,7 +38552,7 @@
         <v>2604</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D107" s="29" t="s">
         <v>2605</v>
@@ -38515,7 +38569,7 @@
         <v>2606</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D108" s="29" t="s">
         <v>2607</v>
@@ -38532,7 +38586,7 @@
         <v>2608</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D109" s="29" t="s">
         <v>2609</v>
@@ -38549,7 +38603,7 @@
         <v>2610</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D110" s="29" t="s">
         <v>2611</v>
@@ -38566,7 +38620,7 @@
         <v>2612</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D111" s="29" t="s">
         <v>2613</v>
@@ -38583,7 +38637,7 @@
         <v>2614</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D112" s="29" t="s">
         <v>2615</v>
@@ -38600,7 +38654,7 @@
         <v>2616</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D113" s="29" t="s">
         <v>2617</v>
@@ -38617,7 +38671,7 @@
         <v>2618</v>
       </c>
       <c r="C114" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D114" s="29" t="s">
         <v>2619</v>
@@ -38634,7 +38688,7 @@
         <v>2620</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D115" s="29" t="s">
         <v>2621</v>
@@ -38651,7 +38705,7 @@
         <v>2622</v>
       </c>
       <c r="C116" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D116" s="29" t="s">
         <v>2623</v>
@@ -38668,7 +38722,7 @@
         <v>2624</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D117" s="29" t="s">
         <v>2625</v>
@@ -38685,7 +38739,7 @@
         <v>2626</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D118" s="29" t="s">
         <v>2627</v>
@@ -38702,7 +38756,7 @@
         <v>2628</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D119" s="29" t="s">
         <v>2629</v>
@@ -38719,7 +38773,7 @@
         <v>2630</v>
       </c>
       <c r="C120" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D120" s="29" t="s">
         <v>2631</v>
@@ -38736,7 +38790,7 @@
         <v>2632</v>
       </c>
       <c r="C121" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D121" s="29" t="s">
         <v>2633</v>
@@ -38753,7 +38807,7 @@
         <v>2634</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D122" s="29" t="s">
         <v>2635</v>
@@ -38770,7 +38824,7 @@
         <v>2636</v>
       </c>
       <c r="C123" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D123" s="29" t="s">
         <v>2637</v>
@@ -38787,7 +38841,7 @@
         <v>2638</v>
       </c>
       <c r="C124" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D124" s="29" t="s">
         <v>2639</v>
@@ -38804,7 +38858,7 @@
         <v>2640</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D125" s="29" t="s">
         <v>2641</v>
@@ -38821,7 +38875,7 @@
         <v>2642</v>
       </c>
       <c r="C126" s="29" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D126" s="29" t="s">
         <v>2643</v>
@@ -38838,7 +38892,7 @@
         <v>2644</v>
       </c>
       <c r="C127" s="33" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="D127" s="33" t="s">
         <v>2645</v>
@@ -38855,7 +38909,7 @@
         <v>2646</v>
       </c>
       <c r="C128" s="33" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="D128" s="33" t="s">
         <v>2647</v>
@@ -38872,7 +38926,7 @@
         <v>2648</v>
       </c>
       <c r="C129" s="33" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D129" s="33" t="s">
         <v>2649</v>
@@ -38889,7 +38943,7 @@
         <v>2650</v>
       </c>
       <c r="C130" s="33" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D130" s="33" t="s">
         <v>2651</v>
@@ -38906,7 +38960,7 @@
         <v>2652</v>
       </c>
       <c r="C131" s="33" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D131" s="33" t="s">
         <v>2653</v>
@@ -38923,7 +38977,7 @@
         <v>2654</v>
       </c>
       <c r="C132" s="33" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D132" s="33" t="s">
         <v>2655</v>
@@ -38940,7 +38994,7 @@
         <v>2656</v>
       </c>
       <c r="C133" s="33" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D133" s="33" t="s">
         <v>2657</v>
@@ -38957,7 +39011,7 @@
         <v>2658</v>
       </c>
       <c r="C134" s="33" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D134" s="33" t="s">
         <v>2659</v>
@@ -38974,7 +39028,7 @@
         <v>2660</v>
       </c>
       <c r="C135" s="33" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D135" s="33" t="s">
         <v>2661</v>
@@ -38991,7 +39045,7 @@
         <v>2662</v>
       </c>
       <c r="C136" s="33" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D136" s="33" t="s">
         <v>2663</v>
@@ -39008,7 +39062,7 @@
         <v>2665</v>
       </c>
       <c r="C137" s="33" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D137" s="33" t="s">
         <v>2666</v>
@@ -39025,7 +39079,7 @@
         <v>2667</v>
       </c>
       <c r="C138" s="33" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D138" s="33" t="s">
         <v>2668</v>
@@ -39042,7 +39096,7 @@
         <v>2669</v>
       </c>
       <c r="C139" s="33" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D139" s="33" t="s">
         <v>2670</v>
@@ -39056,10 +39110,10 @@
         <v>150</v>
       </c>
       <c r="B140" s="32" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="C140" s="33" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D140" s="33" t="s">
         <v>2672</v>
@@ -39076,7 +39130,7 @@
         <v>2673</v>
       </c>
       <c r="C141" s="33" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D141" s="33" t="s">
         <v>2674</v>
@@ -39093,7 +39147,7 @@
         <v>2675</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D142" s="33" t="s">
         <v>2676</v>
@@ -39110,7 +39164,7 @@
         <v>2677</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D143" s="33" t="s">
         <v>2678</v>
@@ -39127,7 +39181,7 @@
         <v>2679</v>
       </c>
       <c r="C144" s="33" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D144" s="33" t="s">
         <v>2680</v>
@@ -39144,7 +39198,7 @@
         <v>2681</v>
       </c>
       <c r="C145" s="33" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D145" s="33" t="s">
         <v>2682</v>
@@ -39161,7 +39215,7 @@
         <v>2683</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D146" s="33" t="s">
         <v>2684</v>
@@ -39178,7 +39232,7 @@
         <v>2685</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D147" s="33" t="s">
         <v>2686</v>
@@ -39195,7 +39249,7 @@
         <v>2741</v>
       </c>
       <c r="C148" s="37" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="D148" s="37" t="s">
         <v>2687</v>
@@ -39212,7 +39266,7 @@
         <v>2689</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="D149" s="37" t="s">
         <v>2690</v>
@@ -39229,7 +39283,7 @@
         <v>2742</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D150" s="37" t="s">
         <v>2691</v>
@@ -39246,7 +39300,7 @@
         <v>2743</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D151" s="37" t="s">
         <v>2692</v>
@@ -39263,7 +39317,7 @@
         <v>2693</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D152" s="37" t="s">
         <v>2694</v>
@@ -39280,7 +39334,7 @@
         <v>2695</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D153" s="37" t="s">
         <v>2696</v>
@@ -39297,7 +39351,7 @@
         <v>2697</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D154" s="37" t="s">
         <v>2698</v>
@@ -39314,7 +39368,7 @@
         <v>2699</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D155" s="37" t="s">
         <v>2700</v>
@@ -39331,7 +39385,7 @@
         <v>2701</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D156" s="37" t="s">
         <v>2702</v>
@@ -39348,7 +39402,7 @@
         <v>2703</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D157" s="37" t="s">
         <v>2704</v>
@@ -39365,7 +39419,7 @@
         <v>2705</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D158" s="37" t="s">
         <v>2706</v>
@@ -39382,7 +39436,7 @@
         <v>2707</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D159" s="37" t="s">
         <v>2708</v>
@@ -39399,7 +39453,7 @@
         <v>2709</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D160" s="37" t="s">
         <v>2710</v>
@@ -39416,7 +39470,7 @@
         <v>2711</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D161" s="37" t="s">
         <v>2712</v>
@@ -39433,7 +39487,7 @@
         <v>2713</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D162" s="37" t="s">
         <v>2714</v>
@@ -39450,7 +39504,7 @@
         <v>2715</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D163" s="37" t="s">
         <v>2716</v>
@@ -39467,7 +39521,7 @@
         <v>2717</v>
       </c>
       <c r="C164" s="37" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D164" s="37" t="s">
         <v>2718</v>
@@ -39484,7 +39538,7 @@
         <v>2719</v>
       </c>
       <c r="C165" s="37" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D165" s="37" t="s">
         <v>2720</v>
@@ -39534,7 +39588,7 @@
         <v>2749</v>
       </c>
       <c r="C169" s="40" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="D169" s="40" t="s">
         <v>2760</v>
@@ -39551,7 +39605,7 @@
         <v>2750</v>
       </c>
       <c r="C170" s="40" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="D170" s="40" t="s">
         <v>2761</v>
@@ -39568,7 +39622,7 @@
         <v>2751</v>
       </c>
       <c r="C171" s="40" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="D171" s="40" t="s">
         <v>2762</v>
@@ -39585,7 +39639,7 @@
         <v>2752</v>
       </c>
       <c r="C172" s="40" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="D172" s="40" t="s">
         <v>2763</v>
@@ -39602,7 +39656,7 @@
         <v>2753</v>
       </c>
       <c r="C173" s="40" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="D173" s="40" t="s">
         <v>2764</v>
@@ -39619,7 +39673,7 @@
         <v>2754</v>
       </c>
       <c r="C174" s="40" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="D174" s="40" t="s">
         <v>2765</v>
@@ -39636,7 +39690,7 @@
         <v>2755</v>
       </c>
       <c r="C175" s="40" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="D175" s="40" t="s">
         <v>2766</v>
@@ -39653,7 +39707,7 @@
         <v>2732</v>
       </c>
       <c r="C176" s="40" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="D176" s="40" t="s">
         <v>2721</v>
@@ -39670,7 +39724,7 @@
         <v>2722</v>
       </c>
       <c r="C177" s="40" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="D177" s="40" t="s">
         <v>2723</v>
@@ -39687,7 +39741,7 @@
         <v>2724</v>
       </c>
       <c r="C178" s="40" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="D178" s="40" t="s">
         <v>2725</v>
@@ -39704,7 +39758,7 @@
         <v>2726</v>
       </c>
       <c r="C179" s="40" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="D179" s="40" t="s">
         <v>2727</v>
@@ -39721,7 +39775,7 @@
         <v>2728</v>
       </c>
       <c r="C180" s="40" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="D180" s="40" t="s">
         <v>2729</v>
@@ -39735,10 +39789,10 @@
         <v>193</v>
       </c>
       <c r="B181" s="39" t="s">
-        <v>2786</v>
+        <v>2821</v>
       </c>
       <c r="C181" s="40" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="D181" s="40"/>
       <c r="E181" s="39">
@@ -39750,10 +39804,10 @@
         <v>194</v>
       </c>
       <c r="B182" s="39" t="s">
-        <v>2786</v>
+        <v>2821</v>
       </c>
       <c r="C182" s="40" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="D182" s="40"/>
       <c r="E182" s="39">
@@ -39762,16 +39816,50 @@
     </row>
     <row r="183" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A183" s="39">
+        <v>195</v>
+      </c>
+      <c r="B183" s="39" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C183" s="40" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D183" s="40" t="s">
+        <v>2819</v>
+      </c>
+      <c r="E183" s="39">
+        <v>1282008</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A184" s="39">
+        <v>196</v>
+      </c>
+      <c r="B184" s="39" t="s">
+        <v>2818</v>
+      </c>
+      <c r="C184" s="40" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D184" s="40" t="s">
+        <v>2820</v>
+      </c>
+      <c r="E184" s="39">
+        <v>1282143</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A185" s="39">
         <v>199</v>
       </c>
-      <c r="B183" s="39" t="s">
-        <v>2786</v>
-      </c>
-      <c r="C183" s="40" t="s">
-        <v>2809</v>
-      </c>
-      <c r="D183" s="40"/>
-      <c r="E183" s="39">
+      <c r="B185" s="39" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C185" s="40" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D185" s="40"/>
+      <c r="E185" s="39">
         <v>1282548</v>
       </c>
     </row>

--- a/OctopathTraveler/Resource/info_zh_cn.xlsx
+++ b/OctopathTraveler/Resource/info_zh_cn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Git Projects\OctopathTraveler-SaveDataEditor\OctopathTraveler\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A6E2F7-CF29-4D2C-AE65-DB789D85A926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D773048-1979-4BAF-8A14-80045C61BEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27990" windowHeight="16440" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27990" windowHeight="16440" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="character" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7419" uniqueCount="2824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7421" uniqueCount="2824">
   <si>
     <t>Highland Ratkin I</t>
   </si>
@@ -10440,7 +10440,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+    <sheetView topLeftCell="A163" workbookViewId="0">
       <selection activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
@@ -18463,10 +18463,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7ADF300-C656-4AE5-97E2-7AF6BFE7A158}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C663"/>
+  <dimension ref="A1:C664"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A572" workbookViewId="0">
+      <selection activeCell="H579" sqref="H579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -24869,903 +24869,914 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" s="3">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>2253</v>
+        <v>2776</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>1645</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" s="3">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" s="3">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" s="3">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" s="3">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" s="3">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" s="3">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" s="3">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" s="3">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" s="3">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" s="3">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" s="3">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" s="3">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" s="3">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" s="3">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" s="3">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" s="3">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" s="3">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" s="3">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>2392</v>
+        <v>2270</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>2393</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" s="3">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>2271</v>
+        <v>2392</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>1663</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" s="3">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" s="3">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" s="3">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" s="3">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" s="3">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" s="3">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" s="3">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" s="3">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" s="3">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" s="3">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" s="3">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" s="3">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" s="3">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="C614" s="2" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" s="3">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="C615" s="2" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" s="3">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="C616" s="2" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" s="3">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" s="3">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" s="3">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" s="3">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" s="3">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" s="3">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C622" s="2" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" s="3">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" s="3">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" s="3">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="3">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="3">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="3">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="3">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="3">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="3">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="3">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="3">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="3">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="C634" s="2" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="3">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="C635" s="2" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="3">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" s="3">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="C637" s="2" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="3">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="C638" s="2" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="3">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="C639" s="2" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="3">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="C640" s="2" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="3">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="C641" s="2" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="3">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" s="3">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>2395</v>
+        <v>2312</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>2394</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="3">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="3">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>2313</v>
+        <v>2396</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>1705</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" s="3">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C646" s="2" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="3">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="3">
-        <v>2500</v>
+        <v>1968</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="3">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="3">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="3">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="3">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="3">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" s="3">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="C654" s="2" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="3">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="3">
-        <v>2516</v>
+        <v>2507</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="C656" s="2" t="s">
-        <v>671</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="3">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" s="3">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" s="3">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>1716</v>
+        <v>673</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" s="3">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="3">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="3">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="3">
+        <v>2522</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C663" s="2" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A664" s="3">
         <v>2523</v>
       </c>
-      <c r="B663" s="2" t="s">
+      <c r="B664" s="2" t="s">
         <v>2331</v>
       </c>
-      <c r="C663" s="2" t="s">
+      <c r="C664" s="2" t="s">
         <v>1720</v>
       </c>
     </row>
@@ -25781,8 +25792,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E643"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="A420" sqref="A420:XFD420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -32917,7 +32928,7 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="3">
-        <v>0</v>
+        <v>1901</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>2776</v>
